--- a/Working_Book.xlsx
+++ b/Working_Book.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,22 @@
           <t>Student Info</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
@@ -450,7 +465,22 @@
           <t>Davis_Jessica_A511960</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A511960</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -465,7 +495,22 @@
           <t>Williams_Karen_A852290</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A852290</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>11</v>
       </c>
     </row>
@@ -480,7 +525,22 @@
           <t>Brown_Sarah_A191599</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A191599</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>37</v>
       </c>
     </row>
@@ -495,7 +555,22 @@
           <t>Jones_Robert_A326605</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A326605</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>46</v>
       </c>
     </row>
@@ -510,7 +585,22 @@
           <t>Smith_James_A429383</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A429383</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>84</v>
       </c>
     </row>
@@ -525,7 +615,22 @@
           <t>Brown_Jessica_A963166</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A963166</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -540,7 +645,22 @@
           <t>Garcia_Karen_A232898</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A232898</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>98</v>
       </c>
     </row>
@@ -555,7 +675,22 @@
           <t>Johnson_Karen_A856084</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A856084</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -570,7 +705,22 @@
           <t>Davis_Michael_A315775</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A315775</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -585,7 +735,22 @@
           <t>Brown_Sarah_A571267</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A571267</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>87</v>
       </c>
     </row>
@@ -600,7 +765,22 @@
           <t>Smith_Karen_A779742</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A779742</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>41</v>
       </c>
     </row>
@@ -615,7 +795,22 @@
           <t>Brown_John_A454051</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A454051</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>86</v>
       </c>
     </row>
@@ -630,7 +825,22 @@
           <t>Davis_John_A486318</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A486318</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>28</v>
       </c>
     </row>
@@ -645,7 +855,22 @@
           <t>Smith_Sarah_A564766</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A564766</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>22</v>
       </c>
     </row>
@@ -660,7 +885,22 @@
           <t>Johnson_John_A206975</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A206975</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>31</v>
       </c>
     </row>
@@ -675,7 +915,22 @@
           <t>Davis_James_A201811</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A201811</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>19</v>
       </c>
     </row>
@@ -690,7 +945,22 @@
           <t>Johnson_James_A893320</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A893320</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>51</v>
       </c>
     </row>
@@ -705,7 +975,22 @@
           <t>Davis_Linda_A516256</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A516256</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>61</v>
       </c>
     </row>
@@ -720,7 +1005,22 @@
           <t>Johnson_Karen_A817532</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A817532</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>73</v>
       </c>
     </row>
@@ -735,7 +1035,22 @@
           <t>Davis_Michael_A515984</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A515984</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>81</v>
       </c>
     </row>
@@ -750,7 +1065,22 @@
           <t>Smith_Linda_A941835</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A941835</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>58</v>
       </c>
     </row>
@@ -765,7 +1095,22 @@
           <t>Williams_Robert_A933686</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A933686</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>44</v>
       </c>
     </row>
@@ -780,7 +1125,22 @@
           <t>Davis_Sarah_A654057</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A654057</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>92</v>
       </c>
     </row>
@@ -795,7 +1155,22 @@
           <t>Williams_Michael_A874468</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A874468</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>86</v>
       </c>
     </row>
@@ -810,7 +1185,22 @@
           <t>Jones_James_A994973</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A994973</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>88</v>
       </c>
     </row>
@@ -825,7 +1215,22 @@
           <t>Garcia_John_A393154</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A393154</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>75</v>
       </c>
     </row>
@@ -840,7 +1245,22 @@
           <t>Smith_Robert_A323721</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A323721</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>70</v>
       </c>
     </row>
@@ -855,7 +1275,22 @@
           <t>Jones_Michael_A170362</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A170362</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>87</v>
       </c>
     </row>
@@ -870,7 +1305,22 @@
           <t>Miller_James_A621068</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A621068</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>64</v>
       </c>
     </row>
@@ -885,7 +1335,22 @@
           <t>Davis_Karen_A619854</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A619854</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>66</v>
       </c>
     </row>
@@ -900,7 +1365,22 @@
           <t>Davis_Sarah_A207386</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A207386</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>43</v>
       </c>
     </row>
@@ -915,7 +1395,22 @@
           <t>Williams_Jessica_A674244</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A674244</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>67</v>
       </c>
     </row>
@@ -930,7 +1425,22 @@
           <t>Garcia_Linda_A860197</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A860197</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>31</v>
       </c>
     </row>
@@ -945,7 +1455,22 @@
           <t>Jones_Robert_A643151</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A643151</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>48</v>
       </c>
     </row>
@@ -960,7 +1485,22 @@
           <t>Brown_Linda_A597576</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A597576</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,7 +1515,22 @@
           <t>Garcia_Jessica_A257351</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A257351</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>52</v>
       </c>
     </row>
@@ -990,7 +1545,22 @@
           <t>Davis_Sarah_A699748</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A699748</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1005,7 +1575,22 @@
           <t>Miller_James_A810037</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A810037</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1020,7 +1605,22 @@
           <t>Jones_Karen_A399574</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A399574</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1035,7 +1635,22 @@
           <t>Williams_Linda_A609852</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A609852</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1050,7 +1665,22 @@
           <t>Miller_Michael_A954650</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1065,7 +1695,22 @@
           <t>Jones_Karen_A719848</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A719848</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1080,7 +1725,22 @@
           <t>Garcia_Karen_A731798</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A731798</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>65</v>
       </c>
     </row>
@@ -1095,7 +1755,22 @@
           <t>Jones_Robert_A863769</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A863769</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1110,7 +1785,22 @@
           <t>Smith_Jessica_A304200</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A304200</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1125,7 +1815,22 @@
           <t>Brown_Karen_A233365</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A233365</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1140,7 +1845,22 @@
           <t>Jones_John_A201981</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A201981</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1155,7 +1875,22 @@
           <t>Garcia_Karen_A520661</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A520661</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>92</v>
       </c>
     </row>
@@ -1170,7 +1905,22 @@
           <t>Williams_Linda_A630060</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A630060</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1185,7 +1935,22 @@
           <t>Jones_Linda_A400216</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>A400216</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1200,7 +1965,22 @@
           <t>Garcia_Sarah_A772179</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A772179</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>74</v>
       </c>
     </row>
@@ -1215,7 +1995,22 @@
           <t>Jones_Karen_A773242</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>A773242</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1230,7 +2025,22 @@
           <t>Jones_Jessica_A803666</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>A803666</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1245,7 +2055,22 @@
           <t>Smith_Linda_A416979</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A416979</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>89</v>
       </c>
     </row>
@@ -1260,7 +2085,22 @@
           <t>Jones_Jessica_A892596</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A892596</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1275,7 +2115,22 @@
           <t>Miller_James_A751614</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A751614</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1290,7 +2145,22 @@
           <t>Davis_John_A858580</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A858580</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1305,7 +2175,22 @@
           <t>Miller_Linda_A676288</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A676288</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1320,7 +2205,22 @@
           <t>Williams_Sarah_A641012</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A641012</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1335,7 +2235,22 @@
           <t>Garcia_John_A791503</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A791503</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1350,7 +2265,22 @@
           <t>Williams_Robert_A793139</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A793139</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1365,7 +2295,22 @@
           <t>Smith_Michael_A500852</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>A500852</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>96</v>
       </c>
     </row>
@@ -1380,7 +2325,22 @@
           <t>Miller_John_A600500</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A600500</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1395,7 +2355,22 @@
           <t>Brown_Karen_A924996</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A924996</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1410,7 +2385,22 @@
           <t>Davis_Linda_A150818</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A150818</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>38</v>
       </c>
     </row>
@@ -1425,7 +2415,22 @@
           <t>Davis_Jessica_A799480</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A799480</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1440,7 +2445,22 @@
           <t>Williams_Linda_A344337</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A344337</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1455,7 +2475,22 @@
           <t>Williams_Karen_A332047</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A332047</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1470,7 +2505,22 @@
           <t>Johnson_John_A845081</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>A845081</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1485,7 +2535,22 @@
           <t>Jones_Jessica_A673135</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>A673135</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1500,7 +2565,22 @@
           <t>Jones_Robert_A192932</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A192932</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1515,7 +2595,22 @@
           <t>Davis_Linda_A524322</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A524322</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1530,7 +2625,22 @@
           <t>Johnson_Sarah_A411805</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A411805</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1545,7 +2655,22 @@
           <t>Brown_Jessica_A259164</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>A259164</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1560,7 +2685,22 @@
           <t>Garcia_John_A614195</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>A614195</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1575,7 +2715,22 @@
           <t>Miller_Sarah_A503508</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A503508</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1590,7 +2745,22 @@
           <t>Johnson_Jessica_A892429</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>A892429</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1605,7 +2775,22 @@
           <t>Smith_Karen_A650359</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A650359</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1620,7 +2805,22 @@
           <t>Jones_Michael_A977417</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A977417</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1635,7 +2835,22 @@
           <t>Smith_James_A726795</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>A726795</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1650,7 +2865,22 @@
           <t>Jones_Robert_A236589</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A236589</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>92</v>
       </c>
     </row>
@@ -1665,7 +2895,22 @@
           <t>Johnson_Jessica_A687088</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A687088</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1680,7 +2925,22 @@
           <t>Davis_Karen_A117549</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>A117549</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1695,7 +2955,22 @@
           <t>Smith_Jessica_A563000</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>A563000</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>83</v>
       </c>
     </row>
@@ -1710,7 +2985,22 @@
           <t>Miller_Sarah_A920130</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A920130</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1725,7 +3015,22 @@
           <t>Smith_Jessica_A134313</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>A134313</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>96</v>
       </c>
     </row>
@@ -1740,7 +3045,22 @@
           <t>Jones_Linda_A158991</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>A158991</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1755,7 +3075,22 @@
           <t>Johnson_Linda_A915440</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>A915440</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1770,7 +3105,22 @@
           <t>Miller_Linda_A371439</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>A371439</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1785,7 +3135,22 @@
           <t>Brown_Linda_A971906</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>A971906</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1800,7 +3165,22 @@
           <t>Garcia_James_A537662</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>A537662</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1815,7 +3195,22 @@
           <t>Johnson_Sarah_A229862</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>A229862</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1830,7 +3225,22 @@
           <t>Garcia_Linda_A539099</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>A539099</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1845,7 +3255,22 @@
           <t>Smith_Linda_A670406</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>A670406</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1860,7 +3285,22 @@
           <t>Johnson_Linda_A630640</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>A630640</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1875,7 +3315,22 @@
           <t>Smith_John_A376888</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>A376888</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1890,7 +3345,22 @@
           <t>Williams_James_A102812</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>A102812</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>92</v>
       </c>
     </row>
@@ -1905,7 +3375,22 @@
           <t>Williams_John_A610724</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A610724</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1920,7 +3405,22 @@
           <t>Davis_Michael_A296175</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>A296175</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1935,7 +3435,22 @@
           <t>Brown_Karen_A256031</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>A256031</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1950,7 +3465,22 @@
           <t>Johnson_Linda_A347087</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>A347087</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1965,7 +3495,22 @@
           <t>Jones_John_A285995</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>A285995</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1980,7 +3525,22 @@
           <t>Johnson_Karen_A980949</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>A980949</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1995,7 +3555,22 @@
           <t>Smith_Karen_A260772</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>A260772</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2010,7 +3585,22 @@
           <t>Williams_John_A337854</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>A337854</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2025,7 +3615,22 @@
           <t>Miller_Michael_A943057</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>A943057</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>54</v>
       </c>
     </row>
@@ -2040,7 +3645,22 @@
           <t>Garcia_John_A831715</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>A831715</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>89</v>
       </c>
     </row>
@@ -2055,7 +3675,22 @@
           <t>Miller_James_A863519</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>A863519</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2070,7 +3705,22 @@
           <t>Davis_Jessica_A440904</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>A440904</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2085,7 +3735,22 @@
           <t>Brown_Robert_A419955</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>A419955</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2100,7 +3765,22 @@
           <t>Smith_Sarah_A547872</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>A547872</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2115,7 +3795,22 @@
           <t>Jones_James_A200743</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>A200743</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
         <v>98</v>
       </c>
     </row>
@@ -2130,7 +3825,22 @@
           <t>Jones_Jessica_A314989</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>A314989</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2145,7 +3855,22 @@
           <t>Miller_Karen_A402372</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>A402372</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2160,7 +3885,22 @@
           <t>Johnson_Karen_A913128</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>A913128</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2175,7 +3915,22 @@
           <t>Brown_Karen_A105615</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>A105615</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2190,7 +3945,22 @@
           <t>Williams_Jessica_A371671</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>A371671</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
         <v>77</v>
       </c>
     </row>
@@ -2205,7 +3975,22 @@
           <t>Miller_Jessica_A323300</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>A323300</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
         <v>94</v>
       </c>
     </row>
@@ -2220,7 +4005,22 @@
           <t>Garcia_Jessica_A267168</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>A267168</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2235,7 +4035,22 @@
           <t>Brown_Michael_A992643</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>A992643</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
         <v>78</v>
       </c>
     </row>
@@ -2250,7 +4065,22 @@
           <t>Miller_Michael_A349246</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>A349246</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2265,7 +4095,22 @@
           <t>Garcia_Karen_A846325</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>A846325</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
         <v>53</v>
       </c>
     </row>
@@ -2280,7 +4125,22 @@
           <t>Jones_John_A460567</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>A460567</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2295,7 +4155,22 @@
           <t>Garcia_James_A122709</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>A122709</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2310,7 +4185,22 @@
           <t>Smith_James_A308435</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>A308435</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2325,7 +4215,22 @@
           <t>Smith_John_A125691</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A125691</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2340,7 +4245,22 @@
           <t>Johnson_James_A634421</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>A634421</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
         <v>66</v>
       </c>
     </row>
@@ -2355,7 +4275,22 @@
           <t>Johnson_John_A604398</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A604398</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
         <v>78</v>
       </c>
     </row>
@@ -2370,7 +4305,22 @@
           <t>Brown_Michael_A480800</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A480800</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
         <v>99</v>
       </c>
     </row>
@@ -2385,7 +4335,22 @@
           <t>Davis_John_A497972</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A497972</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2400,7 +4365,22 @@
           <t>Johnson_James_A852078</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>A852078</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
         <v>64</v>
       </c>
     </row>
@@ -2415,7 +4395,22 @@
           <t>Williams_Karen_A426945</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>A426945</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2430,7 +4425,22 @@
           <t>Johnson_Robert_A296980</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>A296980</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2445,7 +4455,22 @@
           <t>Williams_John_A300703</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A300703</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2460,7 +4485,22 @@
           <t>Smith_Michael_A716956</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>A716956</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2475,7 +4515,22 @@
           <t>Brown_Linda_A684265</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>A684265</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2490,7 +4545,22 @@
           <t>Davis_James_A509185</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A509185</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2505,7 +4575,22 @@
           <t>Davis_Michael_A899920</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>A899920</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2520,7 +4605,22 @@
           <t>Smith_Linda_A812418</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>A812418</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2535,7 +4635,22 @@
           <t>Jones_John_A384253</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A384253</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2550,7 +4665,22 @@
           <t>Smith_Robert_A865432</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>A865432</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2565,7 +4695,22 @@
           <t>Brown_James_A800071</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>A800071</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2580,7 +4725,22 @@
           <t>Brown_James_A660145</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A660145</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2595,7 +4755,22 @@
           <t>Miller_Jessica_A173278</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A173278</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>54</v>
       </c>
     </row>
@@ -2610,7 +4785,22 @@
           <t>Miller_Michael_A486548</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>A486548</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2625,7 +4815,22 @@
           <t>Garcia_Jessica_A499761</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A499761</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2640,7 +4845,22 @@
           <t>Johnson_John_A199405</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>A199405</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2655,7 +4875,22 @@
           <t>Miller_John_A785670</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>A785670</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2670,7 +4905,22 @@
           <t>Garcia_John_A335383</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>A335383</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2685,7 +4935,22 @@
           <t>Garcia_Michael_A793880</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>A793880</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2700,7 +4965,22 @@
           <t>Williams_Linda_A889747</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>A889747</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2715,7 +4995,22 @@
           <t>Garcia_Robert_A723501</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>A723501</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2730,7 +5025,22 @@
           <t>Smith_John_A871317</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>A871317</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
         <v>74</v>
       </c>
     </row>
@@ -2745,7 +5055,22 @@
           <t>Miller_John_A174596</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A174596</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
         <v>89</v>
       </c>
     </row>
@@ -2760,7 +5085,22 @@
           <t>Garcia_Karen_A307595</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>A307595</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2775,7 +5115,22 @@
           <t>Williams_John_A779442</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>A779442</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2790,7 +5145,22 @@
           <t>Williams_Karen_A589928</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>A589928</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2805,7 +5175,22 @@
           <t>Jones_Sarah_A627045</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>A627045</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2820,7 +5205,22 @@
           <t>Smith_Michael_A755395</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>A755395</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2835,7 +5235,22 @@
           <t>Davis_James_A967916</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>A967916</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2850,7 +5265,22 @@
           <t>Johnson_Jessica_A426255</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>A426255</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2865,7 +5295,22 @@
           <t>Jones_Michael_A282768</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>A282768</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
         <v>77</v>
       </c>
     </row>
@@ -2880,7 +5325,22 @@
           <t>Jones_Jessica_A788958</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>A788958</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
         <v>77</v>
       </c>
     </row>
@@ -2895,7 +5355,22 @@
           <t>Brown_Karen_A123679</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A123679</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
         <v>61</v>
       </c>
     </row>
@@ -2910,7 +5385,22 @@
           <t>Miller_John_A781203</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A781203</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2925,7 +5415,22 @@
           <t>Brown_Jessica_A689526</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A689526</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2940,7 +5445,22 @@
           <t>Miller_Robert_A849390</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>A849390</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2955,7 +5475,22 @@
           <t>Smith_Robert_A269091</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>A269091</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2970,7 +5505,22 @@
           <t>Jones_Sarah_A553176</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>A553176</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2985,7 +5535,22 @@
           <t>Miller_Michael_A908120</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A908120</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3000,7 +5565,22 @@
           <t>Johnson_Sarah_A548819</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>A548819</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3015,7 +5595,22 @@
           <t>Jones_Michael_A213644</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>A213644</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3030,7 +5625,22 @@
           <t>Brown_Karen_A206913</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>A206913</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
         <v>96</v>
       </c>
     </row>
@@ -3045,7 +5655,22 @@
           <t>Davis_John_A335585</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A335585</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
         <v>79</v>
       </c>
     </row>
@@ -3060,7 +5685,22 @@
           <t>Williams_Karen_A768962</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A768962</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
         <v>83</v>
       </c>
     </row>
@@ -3075,7 +5715,22 @@
           <t>Miller_Sarah_A723308</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>A723308</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3090,7 +5745,22 @@
           <t>Smith_Sarah_A543651</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>A543651</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
         <v>95</v>
       </c>
     </row>
@@ -3105,7 +5775,22 @@
           <t>Johnson_Karen_A377141</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>A377141</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
         <v>28</v>
       </c>
     </row>
@@ -3120,7 +5805,22 @@
           <t>Johnson_John_A696942</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>A696942</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3135,7 +5835,22 @@
           <t>Jones_Jessica_A701491</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>A701491</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
         <v>32</v>
       </c>
     </row>
